--- a/Case Data Services/CDC_data.xlsx
+++ b/Case Data Services/CDC_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0346df80bcaed32e/Desktop/TeamPi-P2/Case Data Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{7FA44806-004A-4604-831A-4E6047184329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{95BCD441-5325-4DF9-902D-B2BAA9D4224B}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{7FA44806-004A-4604-831A-4E6047184329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BAF84715-9165-4827-8CD0-8A9326F6690C}"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="880" windowWidth="11780" windowHeight="9320" xr2:uid="{FD71C8DE-A92F-4285-95D2-0C8150F0EFB8}"/>
+    <workbookView xWindow="7390" yWindow="10" windowWidth="11780" windowHeight="9320" xr2:uid="{FD71C8DE-A92F-4285-95D2-0C8150F0EFB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,402 +96,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Cases over past week</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>44157</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44158</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44160</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44161</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44162</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44163</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8751</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6704</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14392</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15609</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12636</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3429</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-35B3-4A0B-8AA7-51D1FA1BF76A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="379108528"/>
-        <c:axId val="379105648"/>
-      </c:barChart>
-      <c:dateAx>
-        <c:axId val="379108528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379105648"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="379105648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379108528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Deaths over past week</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>102</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2F55-4023-8671-E6B9329225E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="601844600"/>
-        <c:axId val="601843640"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="601844600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601843640"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="601843640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601844600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34046FAD-F252-4910-B701-113E38D1E43D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B29088-9196-4FC1-A93A-6B4E7A65ED49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -793,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508073CA-4E1E-421E-B433-08491F45578A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -892,6 +496,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Case Data Services/CDC_data.xlsx
+++ b/Case Data Services/CDC_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0346df80bcaed32e/Desktop/TeamPi-P2/Case Data Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{7FA44806-004A-4604-831A-4E6047184329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BAF84715-9165-4827-8CD0-8A9326F6690C}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{7FA44806-004A-4604-831A-4E6047184329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D7022FE-49A1-4E19-913A-4183F59D050E}"/>
   <bookViews>
     <workbookView xWindow="7390" yWindow="10" windowWidth="11780" windowHeight="9320" xr2:uid="{FD71C8DE-A92F-4285-95D2-0C8150F0EFB8}"/>
   </bookViews>
